--- a/input/Operaciones_individuales.xlsx
+++ b/input/Operaciones_individuales.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos\BancaProject\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -808,8 +813,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,11 +877,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,7 +931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,9 +963,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,6 +998,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1159,14 +1174,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1239,7 +1270,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1274,7 +1305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1309,7 +1340,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1344,7 +1375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1379,7 +1410,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1414,7 +1445,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1449,7 +1480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1484,7 +1515,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1519,7 +1550,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1554,7 +1585,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1589,7 +1620,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1624,7 +1655,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1659,7 +1690,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1694,7 +1725,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1729,7 +1760,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -1764,7 +1795,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -1834,7 +1865,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -1869,7 +1900,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -1904,7 +1935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -1939,7 +1970,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -1974,7 +2005,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -2009,7 +2040,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>33</v>
       </c>
@@ -2044,7 +2075,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>34</v>
       </c>
@@ -2079,7 +2110,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>35</v>
       </c>
@@ -2114,7 +2145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>36</v>
       </c>
@@ -2149,7 +2180,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37</v>
       </c>
@@ -2184,7 +2215,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>38</v>
       </c>
@@ -2219,7 +2250,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39</v>
       </c>
@@ -2254,7 +2285,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40</v>
       </c>
@@ -2289,7 +2320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44</v>
       </c>
@@ -2324,7 +2355,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45</v>
       </c>
@@ -2359,7 +2390,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46</v>
       </c>
@@ -2394,7 +2425,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47</v>
       </c>
@@ -2429,7 +2460,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>48</v>
       </c>
@@ -2464,7 +2495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>49</v>
       </c>
@@ -2499,7 +2530,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>50</v>
       </c>
@@ -2534,7 +2565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>51</v>
       </c>
@@ -2569,7 +2600,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>52</v>
       </c>
@@ -2604,7 +2635,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>53</v>
       </c>
@@ -2639,7 +2670,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>54</v>
       </c>
@@ -2674,7 +2705,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>55</v>
       </c>
@@ -2709,7 +2740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>59</v>
       </c>
@@ -2744,7 +2775,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>60</v>
       </c>
@@ -2779,7 +2810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>61</v>
       </c>
@@ -2814,7 +2845,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>62</v>
       </c>
@@ -2849,7 +2880,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -2884,7 +2915,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -2919,7 +2950,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>65</v>
       </c>
@@ -2954,7 +2985,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>66</v>
       </c>
@@ -2989,7 +3020,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -3024,7 +3055,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -3059,7 +3090,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -3094,7 +3125,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>71</v>
       </c>
@@ -3129,7 +3160,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>72</v>
       </c>
@@ -3164,7 +3195,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>73</v>
       </c>
@@ -3199,7 +3230,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>74</v>
       </c>
@@ -3234,7 +3265,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>75</v>
       </c>
@@ -3269,7 +3300,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>76</v>
       </c>
@@ -3304,7 +3335,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>77</v>
       </c>
@@ -3339,7 +3370,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>78</v>
       </c>
@@ -3374,7 +3405,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>79</v>
       </c>
@@ -3409,7 +3440,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>80</v>
       </c>
@@ -3444,7 +3475,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>81</v>
       </c>
@@ -3479,7 +3510,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>82</v>
       </c>
@@ -3514,7 +3545,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>83</v>
       </c>
@@ -3549,7 +3580,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>84</v>
       </c>
@@ -3584,7 +3615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>85</v>
       </c>
@@ -3619,7 +3650,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>86</v>
       </c>
@@ -3654,7 +3685,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>89</v>
       </c>
@@ -3689,7 +3720,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>90</v>
       </c>
@@ -3724,7 +3755,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>91</v>
       </c>
@@ -3759,7 +3790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>92</v>
       </c>
@@ -3794,7 +3825,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>93</v>
       </c>
@@ -3829,7 +3860,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>94</v>
       </c>
@@ -3864,7 +3895,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>95</v>
       </c>
@@ -3899,7 +3930,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>100</v>
       </c>
@@ -3934,7 +3965,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>101</v>
       </c>
